--- a/2162021cw.xlsx
+++ b/2162021cw.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>Surname</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Test_2</t>
   </si>
   <si>
+    <t>Test_3</t>
+  </si>
+  <si>
     <t>Banda</t>
   </si>
   <si>
@@ -235,7 +238,7 @@
     <t>Chogugudza</t>
   </si>
   <si>
-    <t>H190671P</t>
+    <t>H190761P</t>
   </si>
   <si>
     <t>Chongore</t>
@@ -295,12 +298,12 @@
     <t>Dube</t>
   </si>
   <si>
+    <t>H180175Y</t>
+  </si>
+  <si>
     <t>H190164C</t>
   </si>
   <si>
-    <t>H180175Y</t>
-  </si>
-  <si>
     <t>GARAWENI</t>
   </si>
   <si>
@@ -391,7 +394,7 @@
     <t>H190246M</t>
   </si>
   <si>
-    <t xml:space="preserve">Madzima </t>
+    <t>Madzima</t>
   </si>
   <si>
     <t>H190600N</t>
@@ -442,7 +445,7 @@
     <t>Makora</t>
   </si>
   <si>
-    <t>H170080</t>
+    <t>H170080N</t>
   </si>
   <si>
     <t>Malisao</t>
@@ -496,12 +499,12 @@
     <t>Marufu</t>
   </si>
   <si>
+    <t>H190168W</t>
+  </si>
+  <si>
     <t>H190502F</t>
   </si>
   <si>
-    <t>H190168W</t>
-  </si>
-  <si>
     <t>Mashingaidze</t>
   </si>
   <si>
@@ -589,12 +592,12 @@
     <t>Mhlanga</t>
   </si>
   <si>
+    <t>H190524V</t>
+  </si>
+  <si>
     <t>H190641B</t>
   </si>
   <si>
-    <t>H190524V</t>
-  </si>
-  <si>
     <t>MLAMBO</t>
   </si>
   <si>
@@ -619,6 +622,9 @@
     <t>H190610G</t>
   </si>
   <si>
+    <t>H160319Z</t>
+  </si>
+  <si>
     <t>MSIMANGA</t>
   </si>
   <si>
@@ -712,12 +718,12 @@
     <t>Mutavayi</t>
   </si>
   <si>
+    <t>H190475A</t>
+  </si>
+  <si>
     <t>H190601T</t>
   </si>
   <si>
-    <t>H190475A</t>
-  </si>
-  <si>
     <t>Mutota</t>
   </si>
   <si>
@@ -733,9 +739,6 @@
     <t>Mutungwazi</t>
   </si>
   <si>
-    <t>H170464X</t>
-  </si>
-  <si>
     <t>H190464X</t>
   </si>
   <si>
@@ -853,6 +856,12 @@
     <t>H190402X</t>
   </si>
   <si>
+    <t>Ruhukwa</t>
+  </si>
+  <si>
+    <t>H190347G</t>
+  </si>
+  <si>
     <t>RUKWESVE</t>
   </si>
   <si>
@@ -961,7 +970,7 @@
     <t>H190658W</t>
   </si>
   <si>
-    <t>tsheda</t>
+    <t>Tsheda</t>
   </si>
   <si>
     <t>H180206Z</t>
@@ -992,7 +1001,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1002,6 +1011,17 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1059,13 +1079,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2178,21 +2198,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:F162"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.3594" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6328" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="6" width="14.3516" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
+    <row r="1" ht="17.9" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -2208,16 +2224,19 @@
       <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="13.55" customHeight="1">
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="17.9" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="4">
         <v>0.645161290322581</v>
@@ -2225,16 +2244,19 @@
       <c r="E2" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="3" ht="13.55" customHeight="1">
+      <c r="F2" s="4">
+        <v>0.7692307692307691</v>
+      </c>
+    </row>
+    <row r="3" ht="17.9" customHeight="1">
       <c r="A3" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s" s="3">
         <v>8</v>
-      </c>
-      <c r="B3" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s" s="3">
-        <v>7</v>
       </c>
       <c r="D3" s="4">
         <v>0.564516129032258</v>
@@ -2242,16 +2264,19 @@
       <c r="E3" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="4" ht="13.55" customHeight="1">
+      <c r="F3" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="4" ht="17.9" customHeight="1">
       <c r="A4" t="s" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="4">
         <v>0.693548387096774</v>
@@ -2259,16 +2284,19 @@
       <c r="E4" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="5" ht="13.55" customHeight="1">
+      <c r="F4" s="4">
+        <v>0.492307692307692</v>
+      </c>
+    </row>
+    <row r="5" ht="17.9" customHeight="1">
       <c r="A5" t="s" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
         <v>0.67741935483871</v>
@@ -2276,16 +2304,19 @@
       <c r="E5" s="4">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="6" ht="13.55" customHeight="1">
+      <c r="F5" s="4">
+        <v>0.830769230769231</v>
+      </c>
+    </row>
+    <row r="6" ht="17.9" customHeight="1">
       <c r="A6" t="s" s="3">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s" s="3">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s" s="3">
         <v>15</v>
-      </c>
-      <c r="B6" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s" s="3">
-        <v>14</v>
       </c>
       <c r="D6" s="4">
         <v>0.612903225806452</v>
@@ -2293,16 +2324,19 @@
       <c r="E6" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
+      <c r="F6" s="4">
+        <v>0.815384615384615</v>
+      </c>
+    </row>
+    <row r="7" ht="17.9" customHeight="1">
       <c r="A7" t="s" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="4">
         <v>0.338709677419355</v>
@@ -2310,16 +2344,19 @@
       <c r="E7" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="8" ht="13.55" customHeight="1">
+      <c r="F7" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="8" ht="17.9" customHeight="1">
       <c r="A8" t="s" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -2327,16 +2364,19 @@
       <c r="E8" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
+      <c r="F8" s="4">
+        <v>0.646153846153846</v>
+      </c>
+    </row>
+    <row r="9" ht="17.9" customHeight="1">
       <c r="A9" t="s" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4">
         <v>0.5483870967741939</v>
@@ -2344,16 +2384,19 @@
       <c r="E9" s="4">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="10" ht="13.55" customHeight="1">
+      <c r="F9" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="10" ht="17.9" customHeight="1">
       <c r="A10" t="s" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s" s="3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="4">
         <v>0.5161290322580649</v>
@@ -2361,16 +2404,19 @@
       <c r="E10" s="4">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
+      <c r="F10" s="4">
+        <v>0.446153846153846</v>
+      </c>
+    </row>
+    <row r="11" ht="17.9" customHeight="1">
       <c r="A11" t="s" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
         <v>0.435483870967742</v>
@@ -2378,16 +2424,19 @@
       <c r="E11" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
+      <c r="F11" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="12" ht="17.9" customHeight="1">
       <c r="A12" t="s" s="3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" t="s" s="3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>0.274193548387097</v>
@@ -2395,16 +2444,19 @@
       <c r="E12" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
+      <c r="F12" s="4">
+        <v>0.661538461538462</v>
+      </c>
+    </row>
+    <row r="13" ht="17.9" customHeight="1">
       <c r="A13" t="s" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>0.290322580645161</v>
@@ -2412,16 +2464,19 @@
       <c r="E13" s="4">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
+      <c r="F13" s="4">
+        <v>0.446153846153846</v>
+      </c>
+    </row>
+    <row r="14" ht="17.9" customHeight="1">
       <c r="A14" t="s" s="3">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s" s="3">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" s="4">
         <v>0.580645161290323</v>
@@ -2429,16 +2484,19 @@
       <c r="E14" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
+      <c r="F14" s="4">
+        <v>0.630769230769231</v>
+      </c>
+    </row>
+    <row r="15" ht="17.9" customHeight="1">
       <c r="A15" t="s" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s" s="3">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -2446,16 +2504,19 @@
       <c r="E15" s="4">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
+      <c r="F15" s="4">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="16" ht="17.9" customHeight="1">
       <c r="A16" t="s" s="3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4">
         <v>0.596774193548387</v>
@@ -2463,16 +2524,19 @@
       <c r="E16" s="4">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
+      <c r="F16" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="17" ht="17.9" customHeight="1">
       <c r="A17" t="s" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>0.403225806451613</v>
@@ -2480,16 +2544,19 @@
       <c r="E17" s="4">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="17.9" customHeight="1">
       <c r="A18" t="s" s="3">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s" s="3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4">
         <v>0.403225806451613</v>
@@ -2497,16 +2564,19 @@
       <c r="E18" s="4">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="19" ht="13.55" customHeight="1">
+      <c r="F18" s="4">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="19" ht="17.9" customHeight="1">
       <c r="A19" t="s" s="3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s" s="3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
@@ -2514,16 +2584,19 @@
       <c r="E19" s="4">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
+      <c r="F19" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="20" ht="17.9" customHeight="1">
       <c r="A20" t="s" s="3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="3">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4">
         <v>0.645161290322581</v>
@@ -2531,16 +2604,19 @@
       <c r="E20" s="4">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="21" ht="13.55" customHeight="1">
+      <c r="F20" s="4">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="21" ht="17.9" customHeight="1">
       <c r="A21" t="s" s="3">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" t="s" s="3">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4">
         <v>0.225806451612903</v>
@@ -2548,16 +2624,19 @@
       <c r="E21" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
+      <c r="F21" s="4">
+        <v>0.353846153846154</v>
+      </c>
+    </row>
+    <row r="22" ht="17.9" customHeight="1">
       <c r="A22" t="s" s="3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B22" t="s" s="3">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="4">
         <v>0.693548387096774</v>
@@ -2565,16 +2644,19 @@
       <c r="E22" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
+      <c r="F22" s="4">
+        <v>0.446153846153846</v>
+      </c>
+    </row>
+    <row r="23" ht="17.9" customHeight="1">
       <c r="A23" t="s" s="3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s" s="3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23" s="4">
         <v>0.370967741935484</v>
@@ -2582,16 +2664,19 @@
       <c r="E23" s="4">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
+      <c r="F23" s="4">
+        <v>0.630769230769231</v>
+      </c>
+    </row>
+    <row r="24" ht="17.9" customHeight="1">
       <c r="A24" t="s" s="3">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s" s="3">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4">
         <v>0.419354838709677</v>
@@ -2599,16 +2684,19 @@
       <c r="E24" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
+      <c r="F24" s="4">
+        <v>0.507692307692308</v>
+      </c>
+    </row>
+    <row r="25" ht="17.9" customHeight="1">
       <c r="A25" t="s" s="3">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s" s="3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C25" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
@@ -2616,16 +2704,19 @@
       <c r="E25" s="4">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
+      <c r="F25" s="4">
+        <v>0.646153846153846</v>
+      </c>
+    </row>
+    <row r="26" ht="17.9" customHeight="1">
       <c r="A26" t="s" s="3">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="3">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4">
         <v>0.5483870967741939</v>
@@ -2633,16 +2724,19 @@
       <c r="E26" s="4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="27" ht="13.55" customHeight="1">
+      <c r="F26" s="4">
+        <v>0.476923076923077</v>
+      </c>
+    </row>
+    <row r="27" ht="17.9" customHeight="1">
       <c r="A27" t="s" s="3">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s" s="3">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D27" s="4">
         <v>0.82258064516129</v>
@@ -2650,16 +2744,19 @@
       <c r="E27" s="4">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
+      <c r="F27" s="4">
+        <v>0.861538461538462</v>
+      </c>
+    </row>
+    <row r="28" ht="17.9" customHeight="1">
       <c r="A28" t="s" s="3">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s" s="3">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="4">
         <v>0.483870967741935</v>
@@ -2667,16 +2764,19 @@
       <c r="E28" s="4">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
+      <c r="F28" s="4">
+        <v>0.476923076923077</v>
+      </c>
+    </row>
+    <row r="29" ht="17.9" customHeight="1">
       <c r="A29" t="s" s="3">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s" s="3">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D29" s="4">
         <v>0.693548387096774</v>
@@ -2684,16 +2784,19 @@
       <c r="E29" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
+      <c r="F29" s="4">
+        <v>0.846153846153846</v>
+      </c>
+    </row>
+    <row r="30" ht="17.9" customHeight="1">
       <c r="A30" t="s" s="3">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s" s="3">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
@@ -2701,16 +2804,19 @@
       <c r="E30" s="4">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="31" ht="13.55" customHeight="1">
+      <c r="F30" s="4">
+        <v>0.461538461538462</v>
+      </c>
+    </row>
+    <row r="31" ht="17.9" customHeight="1">
       <c r="A31" t="s" s="3">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s" s="3">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D31" s="4">
         <v>0.758064516129032</v>
@@ -2718,16 +2824,19 @@
       <c r="E31" s="4">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="32" ht="13.55" customHeight="1">
+      <c r="F31" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="32" ht="17.9" customHeight="1">
       <c r="A32" t="s" s="3">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s" s="3">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D32" s="4">
         <v>0.32258064516129</v>
@@ -2735,16 +2844,19 @@
       <c r="E32" s="4">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="33" ht="13.55" customHeight="1">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="17.9" customHeight="1">
       <c r="A33" t="s" s="3">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s" s="3">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="4">
         <v>0.629032258064516</v>
@@ -2752,16 +2864,19 @@
       <c r="E33" s="4">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
+      <c r="F33" s="4">
+        <v>0.461538461538462</v>
+      </c>
+    </row>
+    <row r="34" ht="17.9" customHeight="1">
       <c r="A34" t="s" s="3">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s" s="3">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="4">
         <v>0.693548387096774</v>
@@ -2769,16 +2884,19 @@
       <c r="E34" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="35" ht="13.55" customHeight="1">
+      <c r="F34" s="4">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="35" ht="17.9" customHeight="1">
       <c r="A35" t="s" s="3">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s" s="3">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D35" s="4">
         <v>0.758064516129032</v>
@@ -2786,16 +2904,19 @@
       <c r="E35" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="36" ht="13.55" customHeight="1">
+      <c r="F35" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="36" ht="17.9" customHeight="1">
       <c r="A36" t="s" s="3">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s" s="3">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D36" s="4">
         <v>0.580645161290323</v>
@@ -2803,16 +2924,19 @@
       <c r="E36" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
+      <c r="F36" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="37" ht="17.9" customHeight="1">
       <c r="A37" t="s" s="3">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s" s="3">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D37" s="4">
         <v>0.241935483870968</v>
@@ -2820,16 +2944,19 @@
       <c r="E37" s="4">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="38" ht="13.55" customHeight="1">
+      <c r="F37" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="38" ht="17.9" customHeight="1">
       <c r="A38" t="s" s="3">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s" s="3">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" s="4">
         <v>0</v>
@@ -2837,16 +2964,19 @@
       <c r="E38" s="4">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="39" ht="13.55" customHeight="1">
+      <c r="F38" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="39" ht="17.9" customHeight="1">
       <c r="A39" t="s" s="3">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s" s="3">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D39" s="4">
         <v>0.306451612903226</v>
@@ -2854,16 +2984,19 @@
       <c r="E39" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" ht="13.55" customHeight="1">
+      <c r="F39" s="4">
+        <v>0.553846153846154</v>
+      </c>
+    </row>
+    <row r="40" ht="17.9" customHeight="1">
       <c r="A40" t="s" s="3">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s" s="3">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D40" s="4">
         <v>0.5161290322580649</v>
@@ -2871,16 +3004,19 @@
       <c r="E40" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="41" ht="13.55" customHeight="1">
+      <c r="F40" s="4">
+        <v>0.661538461538462</v>
+      </c>
+    </row>
+    <row r="41" ht="17.9" customHeight="1">
       <c r="A41" t="s" s="3">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s" s="3">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D41" s="4">
         <v>0.419354838709677</v>
@@ -2888,16 +3024,19 @@
       <c r="E41" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="42" ht="13.55" customHeight="1">
+      <c r="F41" s="4">
+        <v>0.538461538461538</v>
+      </c>
+    </row>
+    <row r="42" ht="17.9" customHeight="1">
       <c r="A42" t="s" s="3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s" s="3">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D42" s="4">
         <v>0.629032258064516</v>
@@ -2905,16 +3044,19 @@
       <c r="E42" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="43" ht="13.55" customHeight="1">
+      <c r="F42" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="43" ht="17.9" customHeight="1">
       <c r="A43" t="s" s="3">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B43" t="s" s="3">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C43" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D43" s="4">
         <v>0.403225806451613</v>
@@ -2922,50 +3064,59 @@
       <c r="E43" s="4">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="44" ht="13.55" customHeight="1">
+      <c r="F43" s="4">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="44" ht="17.9" customHeight="1">
       <c r="A44" t="s" s="3">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s" s="3">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.629032258064516</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0.815384615384615</v>
+      </c>
+    </row>
+    <row r="45" ht="17.9" customHeight="1">
+      <c r="A45" t="s" s="3">
         <v>94</v>
       </c>
-      <c r="C44" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="B45" t="s" s="3">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D45" s="4">
         <v>0.370967741935484</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E45" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" t="s" s="3">
-        <v>93</v>
-      </c>
-      <c r="B45" t="s" s="3">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="D45" s="4">
-        <v>0.629032258064516</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="46" ht="13.55" customHeight="1">
+      <c r="F45" s="4">
+        <v>0.615384615384615</v>
+      </c>
+    </row>
+    <row r="46" ht="17.9" customHeight="1">
       <c r="A46" t="s" s="3">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s" s="3">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4">
         <v>0.532258064516129</v>
@@ -2973,16 +3124,19 @@
       <c r="E46" s="4">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="47" ht="13.55" customHeight="1">
+      <c r="F46" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="47" ht="17.9" customHeight="1">
       <c r="A47" t="s" s="3">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" t="s" s="3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C47" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D47" s="4">
         <v>0.467741935483871</v>
@@ -2990,16 +3144,19 @@
       <c r="E47" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="48" ht="13.55" customHeight="1">
+      <c r="F47" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="48" ht="17.9" customHeight="1">
       <c r="A48" t="s" s="3">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s" s="3">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C48" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D48" s="4">
         <v>0.82258064516129</v>
@@ -3007,16 +3164,19 @@
       <c r="E48" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="49" ht="13.55" customHeight="1">
+      <c r="F48" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="49" ht="17.9" customHeight="1">
       <c r="A49" t="s" s="3">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B49" t="s" s="3">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" s="4">
         <v>0.596774193548387</v>
@@ -3024,16 +3184,19 @@
       <c r="E49" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="50" ht="13.55" customHeight="1">
+      <c r="F49" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="50" ht="17.9" customHeight="1">
       <c r="A50" t="s" s="3">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s" s="3">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C50" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D50" s="4">
         <v>0.596774193548387</v>
@@ -3041,16 +3204,19 @@
       <c r="E50" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="51" ht="13.55" customHeight="1">
+      <c r="F50" s="4">
+        <v>0.615384615384615</v>
+      </c>
+    </row>
+    <row r="51" ht="17.9" customHeight="1">
       <c r="A51" t="s" s="3">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s" s="3">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D51" s="4">
         <v>0.387096774193548</v>
@@ -3058,16 +3224,19 @@
       <c r="E51" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="52" ht="13.55" customHeight="1">
+      <c r="F51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="17.9" customHeight="1">
       <c r="A52" t="s" s="3">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s" s="3">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C52" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D52" s="4">
         <v>0.5</v>
@@ -3075,16 +3244,19 @@
       <c r="E52" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="53" ht="13.55" customHeight="1">
+      <c r="F52" s="4">
+        <v>0.615384615384615</v>
+      </c>
+    </row>
+    <row r="53" ht="17.9" customHeight="1">
       <c r="A53" t="s" s="3">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s" s="3">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" s="4">
         <v>0.580645161290323</v>
@@ -3092,16 +3264,19 @@
       <c r="E53" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="54" ht="13.55" customHeight="1">
+      <c r="F53" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="54" ht="17.9" customHeight="1">
       <c r="A54" t="s" s="3">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B54" t="s" s="3">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C54" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
@@ -3109,16 +3284,19 @@
       <c r="E54" s="4">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" ht="13.55" customHeight="1">
+      <c r="F54" s="4">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="55" ht="17.9" customHeight="1">
       <c r="A55" t="s" s="3">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B55" t="s" s="3">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C55" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D55" s="4">
         <v>0.580645161290323</v>
@@ -3126,16 +3304,19 @@
       <c r="E55" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="56" ht="13.55" customHeight="1">
+      <c r="F55" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="56" ht="17.9" customHeight="1">
       <c r="A56" t="s" s="3">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B56" t="s" s="3">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C56" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" s="4">
         <v>0</v>
@@ -3143,16 +3324,19 @@
       <c r="E56" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="57" ht="13.55" customHeight="1">
+      <c r="F56" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="57" ht="17.9" customHeight="1">
       <c r="A57" t="s" s="3">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B57" t="s" s="3">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D57" s="4">
         <v>0.596774193548387</v>
@@ -3160,16 +3344,19 @@
       <c r="E57" s="4">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="58" ht="13.55" customHeight="1">
+      <c r="F57" s="4">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="58" ht="17.9" customHeight="1">
       <c r="A58" t="s" s="3">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B58" t="s" s="3">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" s="4">
         <v>0.725806451612903</v>
@@ -3177,16 +3364,19 @@
       <c r="E58" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="59" ht="13.55" customHeight="1">
+      <c r="F58" s="4">
+        <v>0.553846153846154</v>
+      </c>
+    </row>
+    <row r="59" ht="17.9" customHeight="1">
       <c r="A59" t="s" s="3">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s" s="3">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" s="4">
         <v>0.354838709677419</v>
@@ -3194,16 +3384,19 @@
       <c r="E59" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="60" ht="13.55" customHeight="1">
+      <c r="F59" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="60" ht="17.9" customHeight="1">
       <c r="A60" t="s" s="3">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s" s="3">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C60" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D60" s="4">
         <v>0</v>
@@ -3211,16 +3404,19 @@
       <c r="E60" s="4">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="61" ht="13.55" customHeight="1">
+      <c r="F60" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="61" ht="17.9" customHeight="1">
       <c r="A61" t="s" s="3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s" s="3">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C61" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D61" s="4">
         <v>0</v>
@@ -3228,16 +3424,19 @@
       <c r="E61" s="4">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="62" ht="13.55" customHeight="1">
+      <c r="F61" s="4">
+        <v>0.369230769230769</v>
+      </c>
+    </row>
+    <row r="62" ht="17.9" customHeight="1">
       <c r="A62" t="s" s="3">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62" t="s" s="3">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C62" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="4">
         <v>0.532258064516129</v>
@@ -3245,16 +3444,19 @@
       <c r="E62" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="63" ht="13.55" customHeight="1">
+      <c r="F62" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="63" ht="17.9" customHeight="1">
       <c r="A63" t="s" s="3">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s" s="3">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C63" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D63" s="4">
         <v>0.532258064516129</v>
@@ -3262,16 +3464,19 @@
       <c r="E63" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="64" ht="13.55" customHeight="1">
+      <c r="F63" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="64" ht="17.9" customHeight="1">
       <c r="A64" t="s" s="3">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C64" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" s="4">
         <v>0</v>
@@ -3279,16 +3484,19 @@
       <c r="E64" s="4">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="65" ht="13.55" customHeight="1">
+      <c r="F64" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="65" ht="17.9" customHeight="1">
       <c r="A65" t="s" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65" t="s" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C65" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D65" s="4">
         <v>0.596774193548387</v>
@@ -3296,16 +3504,19 @@
       <c r="E65" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="66" ht="13.55" customHeight="1">
+      <c r="F65" s="4">
+        <v>0.661538461538462</v>
+      </c>
+    </row>
+    <row r="66" ht="17.9" customHeight="1">
       <c r="A66" t="s" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66" t="s" s="3">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C66" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D66" s="4">
         <v>0.451612903225806</v>
@@ -3313,16 +3524,19 @@
       <c r="E66" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="67" ht="13.55" customHeight="1">
+      <c r="F66" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="67" ht="17.9" customHeight="1">
       <c r="A67" t="s" s="3">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67" t="s" s="3">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C67" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D67" s="4">
         <v>0.338709677419355</v>
@@ -3330,16 +3544,19 @@
       <c r="E67" s="4">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="68" ht="13.55" customHeight="1">
+      <c r="F67" s="4">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="68" ht="17.9" customHeight="1">
       <c r="A68" t="s" s="3">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s" s="3">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C68" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D68" s="4">
         <v>0.354838709677419</v>
@@ -3347,16 +3564,19 @@
       <c r="E68" s="4">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="69" ht="13.55" customHeight="1">
+      <c r="F68" s="4">
+        <v>0.7692307692307691</v>
+      </c>
+    </row>
+    <row r="69" ht="17.9" customHeight="1">
       <c r="A69" t="s" s="3">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s" s="3">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" s="4">
         <v>0</v>
@@ -3364,16 +3584,19 @@
       <c r="E69" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="70" ht="13.55" customHeight="1">
+      <c r="F69" s="4">
+        <v>0.384615384615385</v>
+      </c>
+    </row>
+    <row r="70" ht="17.9" customHeight="1">
       <c r="A70" t="s" s="3">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B70" t="s" s="3">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C70" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" s="4">
         <v>0.629032258064516</v>
@@ -3381,16 +3604,19 @@
       <c r="E70" s="4">
         <v>0.66</v>
       </c>
-    </row>
-    <row r="71" ht="13.55" customHeight="1">
+      <c r="F70" s="4">
+        <v>0.553846153846154</v>
+      </c>
+    </row>
+    <row r="71" ht="17.9" customHeight="1">
       <c r="A71" t="s" s="3">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B71" t="s" s="3">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C71" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" s="4">
         <v>0.467741935483871</v>
@@ -3398,16 +3624,19 @@
       <c r="E71" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="72" ht="13.55" customHeight="1">
+      <c r="F71" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="72" ht="17.9" customHeight="1">
       <c r="A72" t="s" s="3">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B72" t="s" s="3">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C72" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D72" s="4">
         <v>0.645161290322581</v>
@@ -3415,16 +3644,19 @@
       <c r="E72" s="4">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="73" ht="13.55" customHeight="1">
+      <c r="F72" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="73" ht="17.9" customHeight="1">
       <c r="A73" t="s" s="3">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B73" t="s" s="3">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D73" s="4">
         <v>0.693548387096774</v>
@@ -3432,16 +3664,19 @@
       <c r="E73" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="74" ht="13.55" customHeight="1">
+      <c r="F73" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="74" ht="17.9" customHeight="1">
       <c r="A74" t="s" s="3">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B74" t="s" s="3">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C74" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" s="4">
         <v>0.451612903225806</v>
@@ -3449,16 +3684,19 @@
       <c r="E74" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="75" ht="13.55" customHeight="1">
+      <c r="F74" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="75" ht="17.9" customHeight="1">
       <c r="A75" t="s" s="3">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s" s="3">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D75" s="4">
         <v>0</v>
@@ -3466,16 +3704,19 @@
       <c r="E75" s="4">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="76" ht="13.55" customHeight="1">
+      <c r="F75" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="76" ht="17.9" customHeight="1">
       <c r="A76" t="s" s="3">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B76" t="s" s="3">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C76" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" s="4">
         <v>0</v>
@@ -3483,16 +3724,19 @@
       <c r="E76" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="77" ht="13.55" customHeight="1">
+      <c r="F76" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="77" ht="17.9" customHeight="1">
       <c r="A77" t="s" s="3">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B77" t="s" s="3">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C77" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" s="4">
         <v>0.5483870967741939</v>
@@ -3500,50 +3744,59 @@
       <c r="E77" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="78" ht="13.55" customHeight="1">
+      <c r="F77" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="78" ht="17.9" customHeight="1">
       <c r="A78" t="s" s="3">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B78" t="s" s="3">
+        <v>162</v>
+      </c>
+      <c r="C78" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.12</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="79" ht="17.9" customHeight="1">
+      <c r="A79" t="s" s="3">
         <v>161</v>
       </c>
-      <c r="C78" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D78" s="4">
+      <c r="B79" t="s" s="3">
+        <v>163</v>
+      </c>
+      <c r="C79" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="D79" s="4">
         <v>0.274193548387097</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E79" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" t="s" s="3">
-        <v>160</v>
-      </c>
-      <c r="B79" t="s" s="3">
-        <v>162</v>
-      </c>
-      <c r="C79" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D79" s="4">
-        <v>0</v>
-      </c>
-      <c r="E79" s="4">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="80" ht="13.55" customHeight="1">
+      <c r="F79" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="80" ht="17.9" customHeight="1">
       <c r="A80" t="s" s="3">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s" s="3">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D80" s="4">
         <v>0.032258064516129</v>
@@ -3551,16 +3804,19 @@
       <c r="E80" s="4">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="81" ht="13.55" customHeight="1">
+      <c r="F80" s="4">
+        <v>0.538461538461538</v>
+      </c>
+    </row>
+    <row r="81" ht="17.9" customHeight="1">
       <c r="A81" t="s" s="3">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B81" t="s" s="3">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C81" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" s="4">
         <v>0.67741935483871</v>
@@ -3568,16 +3824,19 @@
       <c r="E81" s="4">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="82" ht="13.55" customHeight="1">
+      <c r="F81" s="4">
+        <v>0.815384615384615</v>
+      </c>
+    </row>
+    <row r="82" ht="17.9" customHeight="1">
       <c r="A82" t="s" s="3">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B82" t="s" s="3">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C82" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D82" s="4">
         <v>0.274193548387097</v>
@@ -3585,16 +3844,19 @@
       <c r="E82" s="4">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="83" ht="13.55" customHeight="1">
+      <c r="F82" s="4">
+        <v>0.615384615384615</v>
+      </c>
+    </row>
+    <row r="83" ht="17.9" customHeight="1">
       <c r="A83" t="s" s="3">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B83" t="s" s="3">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C83" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" s="4">
         <v>0.403225806451613</v>
@@ -3602,16 +3864,19 @@
       <c r="E83" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="84" ht="13.55" customHeight="1">
+      <c r="F83" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="84" ht="17.9" customHeight="1">
       <c r="A84" t="s" s="3">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B84" t="s" s="3">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C84" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" s="4">
         <v>0.758064516129032</v>
@@ -3619,16 +3884,19 @@
       <c r="E84" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="85" ht="13.55" customHeight="1">
+      <c r="F84" s="4">
+        <v>0.615384615384615</v>
+      </c>
+    </row>
+    <row r="85" ht="17.9" customHeight="1">
       <c r="A85" t="s" s="3">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B85" t="s" s="3">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C85" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" s="4">
         <v>0</v>
@@ -3636,16 +3904,19 @@
       <c r="E85" s="4">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="86" ht="13.55" customHeight="1">
+      <c r="F85" s="4">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="86" ht="17.9" customHeight="1">
       <c r="A86" t="s" s="3">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s" s="3">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C86" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D86" s="4">
         <v>0</v>
@@ -3653,16 +3924,19 @@
       <c r="E86" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="87" ht="13.55" customHeight="1">
+      <c r="F86" s="4">
+        <v>0.476923076923077</v>
+      </c>
+    </row>
+    <row r="87" ht="17.9" customHeight="1">
       <c r="A87" t="s" s="3">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B87" t="s" s="3">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C87" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" s="4">
         <v>0</v>
@@ -3670,16 +3944,19 @@
       <c r="E87" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="88" ht="13.55" customHeight="1">
+      <c r="F87" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="88" ht="17.9" customHeight="1">
       <c r="A88" t="s" s="3">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B88" t="s" s="3">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D88" s="4">
         <v>0.32258064516129</v>
@@ -3687,16 +3964,19 @@
       <c r="E88" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="89" ht="13.55" customHeight="1">
+      <c r="F88" s="4">
+        <v>0.538461538461538</v>
+      </c>
+    </row>
+    <row r="89" ht="17.9" customHeight="1">
       <c r="A89" t="s" s="3">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B89" t="s" s="3">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D89" s="4">
         <v>0</v>
@@ -3704,16 +3984,19 @@
       <c r="E89" s="4">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="90" ht="13.55" customHeight="1">
+      <c r="F89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" ht="17.9" customHeight="1">
       <c r="A90" t="s" s="3">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B90" t="s" s="3">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C90" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D90" s="4">
         <v>0.758064516129032</v>
@@ -3721,16 +4004,19 @@
       <c r="E90" s="4">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="91" ht="13.55" customHeight="1">
+      <c r="F90" s="4">
+        <v>0.630769230769231</v>
+      </c>
+    </row>
+    <row r="91" ht="17.9" customHeight="1">
       <c r="A91" t="s" s="3">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B91" t="s" s="3">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C91" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D91" s="4">
         <v>0.290322580645161</v>
@@ -3738,16 +4024,19 @@
       <c r="E91" s="4">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="92" ht="13.55" customHeight="1">
+      <c r="F91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" ht="17.9" customHeight="1">
       <c r="A92" t="s" s="3">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B92" t="s" s="3">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C92" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" s="4">
         <v>0.629032258064516</v>
@@ -3755,16 +4044,19 @@
       <c r="E92" s="4">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="93" ht="13.55" customHeight="1">
+      <c r="F92" s="4">
+        <v>0.630769230769231</v>
+      </c>
+    </row>
+    <row r="93" ht="17.9" customHeight="1">
       <c r="A93" t="s" s="3">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B93" t="s" s="3">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C93" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D93" s="4">
         <v>0.758064516129032</v>
@@ -3772,50 +4064,59 @@
       <c r="E93" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="94" ht="13.55" customHeight="1">
+      <c r="F93" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="94" ht="17.9" customHeight="1">
       <c r="A94" t="s" s="3">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B94" t="s" s="3">
+        <v>193</v>
+      </c>
+      <c r="C94" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0.661290322580645</v>
+      </c>
+      <c r="E94" s="4">
+        <v>0.58</v>
+      </c>
+      <c r="F94" s="4">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="95" ht="17.9" customHeight="1">
+      <c r="A95" t="s" s="3">
         <v>192</v>
       </c>
-      <c r="C94" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="B95" t="s" s="3">
+        <v>194</v>
+      </c>
+      <c r="C95" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D95" s="4">
         <v>0.08064516129032261</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E95" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="95" ht="13.55" customHeight="1">
-      <c r="A95" t="s" s="3">
-        <v>191</v>
-      </c>
-      <c r="B95" t="s" s="3">
-        <v>193</v>
-      </c>
-      <c r="C95" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D95" s="4">
-        <v>0.661290322580645</v>
-      </c>
-      <c r="E95" s="4">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="96" ht="13.55" customHeight="1">
+      <c r="F95" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="96" ht="17.9" customHeight="1">
       <c r="A96" t="s" s="3">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B96" t="s" s="3">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C96" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D96" s="4">
         <v>0.709677419354839</v>
@@ -3823,16 +4124,19 @@
       <c r="E96" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="97" ht="13.55" customHeight="1">
+      <c r="F96" s="4">
+        <v>0.646153846153846</v>
+      </c>
+    </row>
+    <row r="97" ht="17.9" customHeight="1">
       <c r="A97" t="s" s="3">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B97" t="s" s="3">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C97" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" s="4">
         <v>0.5483870967741939</v>
@@ -3840,16 +4144,19 @@
       <c r="E97" s="4">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="98" ht="13.55" customHeight="1">
+      <c r="F97" s="4">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="98" ht="17.9" customHeight="1">
       <c r="A98" t="s" s="3">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B98" t="s" s="3">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C98" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" s="4">
         <v>0.451612903225806</v>
@@ -3857,16 +4164,19 @@
       <c r="E98" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" ht="13.55" customHeight="1">
+      <c r="F98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" ht="17.9" customHeight="1">
       <c r="A99" t="s" s="3">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B99" t="s" s="3">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D99" s="4">
         <v>0</v>
@@ -3874,25 +4184,31 @@
       <c r="E99" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="100" ht="13.55" customHeight="1">
+      <c r="F99" s="4">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="100" ht="17.9" customHeight="1">
       <c r="A100" t="s" s="3">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B100" t="s" s="3">
         <v>203</v>
       </c>
       <c r="C100" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" s="4">
-        <v>0.5161290322580649</v>
+        <v>0</v>
       </c>
       <c r="E100" s="4">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="101" ht="13.55" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <v>0.507692307692308</v>
+      </c>
+    </row>
+    <row r="101" ht="17.9" customHeight="1">
       <c r="A101" t="s" s="3">
         <v>204</v>
       </c>
@@ -3900,16 +4216,19 @@
         <v>205</v>
       </c>
       <c r="C101" t="s" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D101" s="4">
-        <v>0.435483870967742</v>
+        <v>0.5161290322580649</v>
       </c>
       <c r="E101" s="4">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="102" ht="13.55" customHeight="1">
+        <v>0.82</v>
+      </c>
+      <c r="F101" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="102" ht="17.9" customHeight="1">
       <c r="A102" t="s" s="3">
         <v>206</v>
       </c>
@@ -3917,16 +4236,19 @@
         <v>207</v>
       </c>
       <c r="C102" t="s" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D102" s="4">
-        <v>0.483870967741935</v>
+        <v>0.435483870967742</v>
       </c>
       <c r="E102" s="4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="103" ht="13.55" customHeight="1">
+        <v>0.74</v>
+      </c>
+      <c r="F102" s="4">
+        <v>0.646153846153846</v>
+      </c>
+    </row>
+    <row r="103" ht="17.9" customHeight="1">
       <c r="A103" t="s" s="3">
         <v>208</v>
       </c>
@@ -3934,16 +4256,19 @@
         <v>209</v>
       </c>
       <c r="C103" t="s" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D103" s="4">
-        <v>0.580645161290323</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="E103" s="4">
-        <v>0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="104" ht="13.55" customHeight="1">
+        <v>0.78</v>
+      </c>
+      <c r="F103" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="104" ht="17.9" customHeight="1">
       <c r="A104" t="s" s="3">
         <v>210</v>
       </c>
@@ -3951,16 +4276,19 @@
         <v>211</v>
       </c>
       <c r="C104" t="s" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D104" s="4">
-        <v>0.419354838709677</v>
+        <v>0.580645161290323</v>
       </c>
       <c r="E104" s="4">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="105" ht="13.55" customHeight="1">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F104" s="4">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="105" ht="17.9" customHeight="1">
       <c r="A105" t="s" s="3">
         <v>212</v>
       </c>
@@ -3968,16 +4296,19 @@
         <v>213</v>
       </c>
       <c r="C105" t="s" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D105" s="4">
-        <v>0</v>
+        <v>0.419354838709677</v>
       </c>
       <c r="E105" s="4">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="106" ht="13.55" customHeight="1">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="F105" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="106" ht="17.9" customHeight="1">
       <c r="A106" t="s" s="3">
         <v>214</v>
       </c>
@@ -3985,16 +4316,19 @@
         <v>215</v>
       </c>
       <c r="C106" t="s" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D106" s="4">
-        <v>0.403225806451613</v>
+        <v>0</v>
       </c>
       <c r="E106" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" ht="13.55" customHeight="1">
+        <v>0.58</v>
+      </c>
+      <c r="F106" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="107" ht="17.9" customHeight="1">
       <c r="A107" t="s" s="3">
         <v>216</v>
       </c>
@@ -4002,16 +4336,19 @@
         <v>217</v>
       </c>
       <c r="C107" t="s" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D107" s="4">
-        <v>0.483870967741935</v>
+        <v>0.403225806451613</v>
       </c>
       <c r="E107" s="4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="108" ht="13.55" customHeight="1">
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <v>0.646153846153846</v>
+      </c>
+    </row>
+    <row r="108" ht="17.9" customHeight="1">
       <c r="A108" t="s" s="3">
         <v>218</v>
       </c>
@@ -4019,16 +4356,19 @@
         <v>219</v>
       </c>
       <c r="C108" t="s" s="3">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D108" s="4">
-        <v>0</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="E108" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="109" ht="13.55" customHeight="1">
+        <v>0.78</v>
+      </c>
+      <c r="F108" s="4">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="109" ht="17.9" customHeight="1">
       <c r="A109" t="s" s="3">
         <v>220</v>
       </c>
@@ -4036,16 +4376,19 @@
         <v>221</v>
       </c>
       <c r="C109" t="s" s="3">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D109" s="4">
-        <v>0.483870967741935</v>
+        <v>0</v>
       </c>
       <c r="E109" s="4">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="110" ht="13.55" customHeight="1">
+        <v>0.5</v>
+      </c>
+      <c r="F109" s="4">
+        <v>0.461538461538462</v>
+      </c>
+    </row>
+    <row r="110" ht="17.9" customHeight="1">
       <c r="A110" t="s" s="3">
         <v>222</v>
       </c>
@@ -4053,16 +4396,19 @@
         <v>223</v>
       </c>
       <c r="C110" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D110" s="4">
-        <v>0</v>
+        <v>0.483870967741935</v>
       </c>
       <c r="E110" s="4">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="111" ht="13.55" customHeight="1">
+        <v>0.72</v>
+      </c>
+      <c r="F110" s="4">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="111" ht="17.9" customHeight="1">
       <c r="A111" t="s" s="3">
         <v>224</v>
       </c>
@@ -4070,16 +4416,19 @@
         <v>225</v>
       </c>
       <c r="C111" t="s" s="3">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D111" s="4">
-        <v>0.725806451612903</v>
+        <v>0</v>
       </c>
       <c r="E111" s="4">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="112" ht="13.55" customHeight="1">
+        <v>0.7</v>
+      </c>
+      <c r="F111" s="4">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="112" ht="17.9" customHeight="1">
       <c r="A112" t="s" s="3">
         <v>226</v>
       </c>
@@ -4087,16 +4436,19 @@
         <v>227</v>
       </c>
       <c r="C112" t="s" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D112" s="4">
-        <v>0.387096774193548</v>
+        <v>0.725806451612903</v>
       </c>
       <c r="E112" s="4">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="113" ht="13.55" customHeight="1">
+        <v>0.58</v>
+      </c>
+      <c r="F112" s="4">
+        <v>0.538461538461538</v>
+      </c>
+    </row>
+    <row r="113" ht="17.9" customHeight="1">
       <c r="A113" t="s" s="3">
         <v>228</v>
       </c>
@@ -4104,16 +4456,19 @@
         <v>229</v>
       </c>
       <c r="C113" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D113" s="4">
-        <v>0.693548387096774</v>
+        <v>0.387096774193548</v>
       </c>
       <c r="E113" s="4">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="114" ht="13.55" customHeight="1">
+        <v>0.78</v>
+      </c>
+      <c r="F113" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="114" ht="17.9" customHeight="1">
       <c r="A114" t="s" s="3">
         <v>230</v>
       </c>
@@ -4121,16 +4476,19 @@
         <v>231</v>
       </c>
       <c r="C114" t="s" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D114" s="4">
-        <v>0.774193548387097</v>
+        <v>0.693548387096774</v>
       </c>
       <c r="E114" s="4">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="115" ht="13.55" customHeight="1">
+        <v>0.46</v>
+      </c>
+      <c r="F114" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="115" ht="17.9" customHeight="1">
       <c r="A115" t="s" s="3">
         <v>232</v>
       </c>
@@ -4138,24 +4496,27 @@
         <v>233</v>
       </c>
       <c r="C115" t="s" s="3">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="D115" s="4">
-        <v>0.467741935483871</v>
+        <v>0.774193548387097</v>
       </c>
       <c r="E115" s="4">
-        <v>0.62</v>
-      </c>
-    </row>
-    <row r="116" ht="13.55" customHeight="1">
+        <v>0.84</v>
+      </c>
+      <c r="F115" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="116" ht="17.9" customHeight="1">
       <c r="A116" t="s" s="3">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B116" t="s" s="3">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C116" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D116" s="4">
         <v>0.532258064516129</v>
@@ -4163,25 +4524,31 @@
       <c r="E116" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="117" ht="13.55" customHeight="1">
+      <c r="F116" s="4">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="117" ht="17.9" customHeight="1">
       <c r="A117" t="s" s="3">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B117" t="s" s="3">
         <v>236</v>
       </c>
       <c r="C117" t="s" s="3">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="D117" s="4">
-        <v>0.596774193548387</v>
+        <v>0.467741935483871</v>
       </c>
       <c r="E117" s="4">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="118" ht="13.55" customHeight="1">
+        <v>0.62</v>
+      </c>
+      <c r="F117" s="4">
+        <v>0.630769230769231</v>
+      </c>
+    </row>
+    <row r="118" ht="17.9" customHeight="1">
       <c r="A118" t="s" s="3">
         <v>237</v>
       </c>
@@ -4189,16 +4556,19 @@
         <v>238</v>
       </c>
       <c r="C118" t="s" s="3">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="D118" s="4">
-        <v>0</v>
+        <v>0.596774193548387</v>
       </c>
       <c r="E118" s="4">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="119" ht="13.55" customHeight="1">
+        <v>0.68</v>
+      </c>
+      <c r="F118" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="119" ht="17.9" customHeight="1">
       <c r="A119" t="s" s="3">
         <v>239</v>
       </c>
@@ -4206,41 +4576,47 @@
         <v>240</v>
       </c>
       <c r="C119" t="s" s="3">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D119" s="4">
+        <v>0</v>
+      </c>
+      <c r="E119" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="F119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" ht="17.9" customHeight="1">
+      <c r="A120" t="s" s="3">
+        <v>241</v>
+      </c>
+      <c r="B120" t="s" s="3">
+        <v>242</v>
+      </c>
+      <c r="C120" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D120" s="4">
         <v>0.370967741935484</v>
-      </c>
-      <c r="E119" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" ht="13.55" customHeight="1">
-      <c r="A120" t="s" s="3">
-        <v>239</v>
-      </c>
-      <c r="B120" t="s" s="3">
-        <v>241</v>
-      </c>
-      <c r="C120" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D120" s="4">
-        <v>0</v>
       </c>
       <c r="E120" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="121" ht="13.55" customHeight="1">
+      <c r="F120" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="121" ht="17.9" customHeight="1">
       <c r="A121" t="s" s="3">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B121" t="s" s="3">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C121" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D121" s="4">
         <v>0.419354838709677</v>
@@ -4248,16 +4624,19 @@
       <c r="E121" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="122" ht="13.55" customHeight="1">
+      <c r="F121" s="4">
+        <v>0.646153846153846</v>
+      </c>
+    </row>
+    <row r="122" ht="17.9" customHeight="1">
       <c r="A122" t="s" s="3">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B122" t="s" s="3">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C122" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D122" s="4">
         <v>0</v>
@@ -4265,16 +4644,19 @@
       <c r="E122" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="123" ht="13.55" customHeight="1">
+      <c r="F122" s="4">
+        <v>0.584615384615385</v>
+      </c>
+    </row>
+    <row r="123" ht="17.9" customHeight="1">
       <c r="A123" t="s" s="3">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B123" t="s" s="3">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C123" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D123" s="4">
         <v>0.419354838709677</v>
@@ -4282,16 +4664,19 @@
       <c r="E123" s="4">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="124" ht="13.55" customHeight="1">
+      <c r="F123" s="4">
+        <v>0.7692307692307691</v>
+      </c>
+    </row>
+    <row r="124" ht="17.9" customHeight="1">
       <c r="A124" t="s" s="3">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B124" t="s" s="3">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C124" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" s="4">
         <v>0.5161290322580649</v>
@@ -4299,16 +4684,19 @@
       <c r="E124" s="4">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="125" ht="13.55" customHeight="1">
+      <c r="F124" s="4">
+        <v>0.584615384615385</v>
+      </c>
+    </row>
+    <row r="125" ht="17.9" customHeight="1">
       <c r="A125" t="s" s="3">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B125" t="s" s="3">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C125" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D125" s="4">
         <v>0.370967741935484</v>
@@ -4316,16 +4704,19 @@
       <c r="E125" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="126" ht="13.55" customHeight="1">
+      <c r="F125" s="4">
+        <v>0.7692307692307691</v>
+      </c>
+    </row>
+    <row r="126" ht="17.9" customHeight="1">
       <c r="A126" t="s" s="3">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B126" t="s" s="3">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C126" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D126" s="4">
         <v>0.32258064516129</v>
@@ -4333,16 +4724,19 @@
       <c r="E126" s="4">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="127" ht="13.55" customHeight="1">
+      <c r="F126" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="127" ht="17.9" customHeight="1">
       <c r="A127" t="s" s="3">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B127" t="s" s="3">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C127" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D127" s="4">
         <v>0.419354838709677</v>
@@ -4350,16 +4744,19 @@
       <c r="E127" s="4">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="128" ht="13.55" customHeight="1">
+      <c r="F127" s="4">
+        <v>0.676923076923077</v>
+      </c>
+    </row>
+    <row r="128" ht="17.9" customHeight="1">
       <c r="A128" t="s" s="3">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B128" t="s" s="3">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C128" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D128" s="4">
         <v>0.306451612903226</v>
@@ -4367,16 +4764,19 @@
       <c r="E128" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="129" ht="13.55" customHeight="1">
+      <c r="F128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" ht="17.9" customHeight="1">
       <c r="A129" t="s" s="3">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B129" t="s" s="3">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C129" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D129" s="4">
         <v>0.451612903225806</v>
@@ -4384,16 +4784,19 @@
       <c r="E129" s="4">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="130" ht="13.55" customHeight="1">
+      <c r="F129" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="130" ht="17.9" customHeight="1">
       <c r="A130" t="s" s="3">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B130" t="s" s="3">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C130" t="s" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D130" s="4">
         <v>0.645161290322581</v>
@@ -4401,16 +4804,19 @@
       <c r="E130" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="131" ht="13.55" customHeight="1">
+      <c r="F130" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="131" ht="17.9" customHeight="1">
       <c r="A131" t="s" s="3">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B131" t="s" s="3">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C131" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D131" s="4">
         <v>0.5483870967741939</v>
@@ -4418,16 +4824,19 @@
       <c r="E131" s="4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="132" ht="13.55" customHeight="1">
+      <c r="F131" s="4">
+        <v>0.523076923076923</v>
+      </c>
+    </row>
+    <row r="132" ht="17.9" customHeight="1">
       <c r="A132" t="s" s="3">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B132" t="s" s="3">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C132" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D132" s="4">
         <v>0.82258064516129</v>
@@ -4435,16 +4844,19 @@
       <c r="E132" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="133" ht="13.55" customHeight="1">
+      <c r="F132" s="4">
+        <v>0.615384615384615</v>
+      </c>
+    </row>
+    <row r="133" ht="17.9" customHeight="1">
       <c r="A133" t="s" s="3">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B133" t="s" s="3">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C133" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D133" s="4">
         <v>0</v>
@@ -4452,16 +4864,19 @@
       <c r="E133" s="4">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="134" ht="13.55" customHeight="1">
+      <c r="F133" s="4">
+        <v>0.661538461538462</v>
+      </c>
+    </row>
+    <row r="134" ht="17.9" customHeight="1">
       <c r="A134" t="s" s="3">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B134" t="s" s="3">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C134" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D134" s="4">
         <v>0.532258064516129</v>
@@ -4469,16 +4884,19 @@
       <c r="E134" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="135" ht="13.55" customHeight="1">
+      <c r="F134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" ht="17.9" customHeight="1">
       <c r="A135" t="s" s="3">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B135" t="s" s="3">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C135" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D135" s="4">
         <v>0.661290322580645</v>
@@ -4486,16 +4904,19 @@
       <c r="E135" s="4">
         <v>0.58</v>
       </c>
-    </row>
-    <row r="136" ht="13.55" customHeight="1">
+      <c r="F135" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="136" ht="17.9" customHeight="1">
       <c r="A136" t="s" s="3">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B136" t="s" s="3">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C136" t="s" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D136" s="4">
         <v>0.661290322580645</v>
@@ -4503,16 +4924,19 @@
       <c r="E136" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="137" ht="13.55" customHeight="1">
+      <c r="F136" s="4">
+        <v>0.861538461538462</v>
+      </c>
+    </row>
+    <row r="137" ht="17.9" customHeight="1">
       <c r="A137" t="s" s="3">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B137" t="s" s="3">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C137" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D137" s="4">
         <v>0.32258064516129</v>
@@ -4520,16 +4944,19 @@
       <c r="E137" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="138" ht="13.55" customHeight="1">
+      <c r="F137" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="138" ht="17.9" customHeight="1">
       <c r="A138" t="s" s="3">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B138" t="s" s="3">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C138" t="s" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D138" s="4">
         <v>0.580645161290323</v>
@@ -4537,16 +4964,19 @@
       <c r="E138" s="4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="139" ht="13.55" customHeight="1">
+      <c r="F138" s="4">
+        <v>0.538461538461538</v>
+      </c>
+    </row>
+    <row r="139" ht="17.9" customHeight="1">
       <c r="A139" t="s" s="3">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B139" t="s" s="3">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C139" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D139" s="4">
         <v>0.693548387096774</v>
@@ -4554,379 +4984,468 @@
       <c r="E139" s="4">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="140" ht="13.55" customHeight="1">
+      <c r="F139" s="4">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="140" ht="17.9" customHeight="1">
       <c r="A140" t="s" s="3">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B140" t="s" s="3">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C140" t="s" s="3">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="D140" s="4">
+        <v>0</v>
+      </c>
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+      <c r="F140" s="4">
+        <v>0.492307692307692</v>
+      </c>
+    </row>
+    <row r="141" ht="17.9" customHeight="1">
+      <c r="A141" t="s" s="3">
+        <v>283</v>
+      </c>
+      <c r="B141" t="s" s="3">
+        <v>284</v>
+      </c>
+      <c r="C141" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D141" s="4">
         <v>0.758064516129032</v>
       </c>
-      <c r="E140" s="4">
+      <c r="E141" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="141" ht="13.55" customHeight="1">
-      <c r="A141" t="s" s="3">
-        <v>282</v>
-      </c>
-      <c r="B141" t="s" s="3">
-        <v>283</v>
-      </c>
-      <c r="C141" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D141" s="4">
+      <c r="F141" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="142" ht="17.9" customHeight="1">
+      <c r="A142" t="s" s="3">
+        <v>285</v>
+      </c>
+      <c r="B142" t="s" s="3">
+        <v>286</v>
+      </c>
+      <c r="C142" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D142" s="4">
         <v>0.693548387096774</v>
       </c>
-      <c r="E141" s="4">
+      <c r="E142" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="142" ht="13.55" customHeight="1">
-      <c r="A142" t="s" s="3">
-        <v>284</v>
-      </c>
-      <c r="B142" t="s" s="3">
-        <v>285</v>
-      </c>
-      <c r="C142" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D142" s="4">
+      <c r="F142" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="143" ht="17.9" customHeight="1">
+      <c r="A143" t="s" s="3">
+        <v>287</v>
+      </c>
+      <c r="B143" t="s" s="3">
+        <v>288</v>
+      </c>
+      <c r="C143" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D143" s="4">
         <v>0</v>
       </c>
-      <c r="E142" s="4">
+      <c r="E143" s="4">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="143" ht="13.55" customHeight="1">
-      <c r="A143" t="s" s="3">
-        <v>286</v>
-      </c>
-      <c r="B143" t="s" s="3">
-        <v>287</v>
-      </c>
-      <c r="C143" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D143" s="4">
+      <c r="F143" s="4">
+        <v>0.830769230769231</v>
+      </c>
+    </row>
+    <row r="144" ht="17.9" customHeight="1">
+      <c r="A144" t="s" s="3">
+        <v>289</v>
+      </c>
+      <c r="B144" t="s" s="3">
+        <v>290</v>
+      </c>
+      <c r="C144" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D144" s="4">
         <v>0.467741935483871</v>
       </c>
-      <c r="E143" s="4">
+      <c r="E144" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="144" ht="13.55" customHeight="1">
-      <c r="A144" t="s" s="3">
-        <v>288</v>
-      </c>
-      <c r="B144" t="s" s="3">
-        <v>289</v>
-      </c>
-      <c r="C144" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D144" s="4">
-        <v>0.709677419354839</v>
-      </c>
-      <c r="E144" s="4">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="145" ht="13.55" customHeight="1">
+      <c r="F144" s="4">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="145" ht="17.9" customHeight="1">
       <c r="A145" t="s" s="3">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B145" t="s" s="3">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C145" t="s" s="3">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D145" s="4">
         <v>0.709677419354839</v>
       </c>
       <c r="E145" s="4">
+        <v>0.64</v>
+      </c>
+      <c r="F145" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="146" ht="17.9" customHeight="1">
+      <c r="A146" t="s" s="3">
+        <v>293</v>
+      </c>
+      <c r="B146" t="s" s="3">
+        <v>294</v>
+      </c>
+      <c r="C146" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D146" s="4">
+        <v>0.709677419354839</v>
+      </c>
+      <c r="E146" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="146" ht="13.55" customHeight="1">
-      <c r="A146" t="s" s="3">
-        <v>292</v>
-      </c>
-      <c r="B146" t="s" s="3">
-        <v>293</v>
-      </c>
-      <c r="C146" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="D146" s="4">
+      <c r="F146" s="4">
+        <v>0.707692307692308</v>
+      </c>
+    </row>
+    <row r="147" ht="17.9" customHeight="1">
+      <c r="A147" t="s" s="3">
+        <v>295</v>
+      </c>
+      <c r="B147" t="s" s="3">
+        <v>296</v>
+      </c>
+      <c r="C147" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D147" s="4">
         <v>0.82258064516129</v>
       </c>
-      <c r="E146" s="4">
+      <c r="E147" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="147" ht="13.55" customHeight="1">
-      <c r="A147" t="s" s="3">
-        <v>294</v>
-      </c>
-      <c r="B147" t="s" s="3">
-        <v>295</v>
-      </c>
-      <c r="C147" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D147" s="4">
+      <c r="F147" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="148" ht="17.9" customHeight="1">
+      <c r="A148" t="s" s="3">
+        <v>297</v>
+      </c>
+      <c r="B148" t="s" s="3">
+        <v>298</v>
+      </c>
+      <c r="C148" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D148" s="4">
         <v>0.532258064516129</v>
       </c>
-      <c r="E147" s="4">
+      <c r="E148" s="4">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="148" ht="13.55" customHeight="1">
-      <c r="A148" t="s" s="3">
-        <v>296</v>
-      </c>
-      <c r="B148" t="s" s="3">
-        <v>297</v>
-      </c>
-      <c r="C148" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D148" s="4">
+      <c r="F148" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="149" ht="17.9" customHeight="1">
+      <c r="A149" t="s" s="3">
+        <v>299</v>
+      </c>
+      <c r="B149" t="s" s="3">
+        <v>300</v>
+      </c>
+      <c r="C149" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="D149" s="4">
         <v>0.725806451612903</v>
       </c>
-      <c r="E148" s="4">
+      <c r="E149" s="4">
         <v>0.5600000000000001</v>
       </c>
-    </row>
-    <row r="149" ht="13.55" customHeight="1">
-      <c r="A149" t="s" s="3">
-        <v>298</v>
-      </c>
-      <c r="B149" t="s" s="3">
-        <v>299</v>
-      </c>
-      <c r="C149" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="D149" s="4">
+      <c r="F149" s="4">
+        <v>0.569230769230769</v>
+      </c>
+    </row>
+    <row r="150" ht="17.9" customHeight="1">
+      <c r="A150" t="s" s="3">
+        <v>301</v>
+      </c>
+      <c r="B150" t="s" s="3">
+        <v>302</v>
+      </c>
+      <c r="C150" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="D150" s="4">
         <v>0.693548387096774</v>
       </c>
-      <c r="E149" s="4">
+      <c r="E150" s="4">
         <v>0.78</v>
       </c>
-    </row>
-    <row r="150" ht="13.55" customHeight="1">
-      <c r="A150" t="s" s="3">
-        <v>300</v>
-      </c>
-      <c r="B150" t="s" s="3">
-        <v>301</v>
-      </c>
-      <c r="C150" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D150" s="4">
+      <c r="F150" s="4">
+        <v>0.630769230769231</v>
+      </c>
+    </row>
+    <row r="151" ht="17.9" customHeight="1">
+      <c r="A151" t="s" s="3">
+        <v>303</v>
+      </c>
+      <c r="B151" t="s" s="3">
+        <v>304</v>
+      </c>
+      <c r="C151" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D151" s="4">
         <v>0.580645161290323</v>
       </c>
-      <c r="E150" s="4">
+      <c r="E151" s="4">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="151" ht="13.55" customHeight="1">
-      <c r="A151" t="s" s="3">
-        <v>302</v>
-      </c>
-      <c r="B151" t="s" s="3">
-        <v>303</v>
-      </c>
-      <c r="C151" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D151" s="4">
+      <c r="F151" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="152" ht="17.9" customHeight="1">
+      <c r="A152" t="s" s="3">
+        <v>305</v>
+      </c>
+      <c r="B152" t="s" s="3">
+        <v>306</v>
+      </c>
+      <c r="C152" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D152" s="4">
         <v>0.435483870967742</v>
-      </c>
-      <c r="E151" s="4">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="152" ht="13.55" customHeight="1">
-      <c r="A152" t="s" s="3">
-        <v>304</v>
-      </c>
-      <c r="B152" t="s" s="3">
-        <v>305</v>
-      </c>
-      <c r="C152" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="D152" s="4">
-        <v>0.725806451612903</v>
       </c>
       <c r="E152" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="153" ht="13.55" customHeight="1">
+      <c r="F152" s="4">
+        <v>0.7384615384615379</v>
+      </c>
+    </row>
+    <row r="153" ht="17.9" customHeight="1">
       <c r="A153" t="s" s="3">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B153" t="s" s="3">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C153" t="s" s="3">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="D153" s="4">
+        <v>0.725806451612903</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0.74</v>
+      </c>
+      <c r="F153" s="4">
+        <v>0.553846153846154</v>
+      </c>
+    </row>
+    <row r="154" ht="17.9" customHeight="1">
+      <c r="A154" t="s" s="3">
+        <v>309</v>
+      </c>
+      <c r="B154" t="s" s="3">
+        <v>310</v>
+      </c>
+      <c r="C154" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="D154" s="4">
         <v>0.709677419354839</v>
       </c>
-      <c r="E153" s="4">
+      <c r="E154" s="4">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="154" ht="13.55" customHeight="1">
-      <c r="A154" t="s" s="3">
-        <v>308</v>
-      </c>
-      <c r="B154" t="s" s="3">
-        <v>309</v>
-      </c>
-      <c r="C154" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D154" s="4">
+      <c r="F154" s="4">
+        <v>0.446153846153846</v>
+      </c>
+    </row>
+    <row r="155" ht="17.9" customHeight="1">
+      <c r="A155" t="s" s="3">
+        <v>311</v>
+      </c>
+      <c r="B155" t="s" s="3">
+        <v>312</v>
+      </c>
+      <c r="C155" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="D155" s="4">
         <v>0.596774193548387</v>
       </c>
-      <c r="E154" s="4">
+      <c r="E155" s="4">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="155" ht="13.55" customHeight="1">
-      <c r="A155" t="s" s="3">
-        <v>310</v>
-      </c>
-      <c r="B155" t="s" s="3">
-        <v>311</v>
-      </c>
-      <c r="C155" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="D155" s="4">
+      <c r="F155" s="4">
+        <v>0.723076923076923</v>
+      </c>
+    </row>
+    <row r="156" ht="17.9" customHeight="1">
+      <c r="A156" t="s" s="3">
+        <v>313</v>
+      </c>
+      <c r="B156" t="s" s="3">
+        <v>314</v>
+      </c>
+      <c r="C156" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D156" s="4">
         <v>0.774193548387097</v>
       </c>
-      <c r="E155" s="4">
+      <c r="E156" s="4">
         <v>0.84</v>
       </c>
-    </row>
-    <row r="156" ht="13.55" customHeight="1">
-      <c r="A156" t="s" s="3">
-        <v>312</v>
-      </c>
-      <c r="B156" t="s" s="3">
-        <v>313</v>
-      </c>
-      <c r="C156" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D156" s="4">
+      <c r="F156" s="4">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="157" ht="17.9" customHeight="1">
+      <c r="A157" t="s" s="3">
+        <v>315</v>
+      </c>
+      <c r="B157" t="s" s="3">
+        <v>316</v>
+      </c>
+      <c r="C157" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D157" s="4">
         <v>0.338709677419355</v>
       </c>
-      <c r="E156" s="4">
+      <c r="E157" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" ht="13.55" customHeight="1">
-      <c r="A157" t="s" s="3">
-        <v>314</v>
-      </c>
-      <c r="B157" t="s" s="3">
-        <v>315</v>
-      </c>
-      <c r="C157" t="s" s="3">
-        <v>19</v>
-      </c>
-      <c r="D157" s="4">
+      <c r="F157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" ht="17.9" customHeight="1">
+      <c r="A158" t="s" s="3">
+        <v>317</v>
+      </c>
+      <c r="B158" t="s" s="3">
+        <v>318</v>
+      </c>
+      <c r="C158" t="s" s="3">
+        <v>20</v>
+      </c>
+      <c r="D158" s="4">
         <v>0.403225806451613</v>
       </c>
-      <c r="E157" s="4">
+      <c r="E158" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="158" ht="13.55" customHeight="1">
-      <c r="A158" t="s" s="3">
-        <v>316</v>
-      </c>
-      <c r="B158" t="s" s="3">
-        <v>317</v>
-      </c>
-      <c r="C158" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D158" s="4">
+      <c r="F158" s="4">
+        <v>0.630769230769231</v>
+      </c>
+    </row>
+    <row r="159" ht="17.9" customHeight="1">
+      <c r="A159" t="s" s="3">
+        <v>319</v>
+      </c>
+      <c r="B159" t="s" s="3">
+        <v>320</v>
+      </c>
+      <c r="C159" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D159" s="4">
         <v>0.419354838709677</v>
       </c>
-      <c r="E158" s="4">
+      <c r="E159" s="4">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="159" ht="13.55" customHeight="1">
-      <c r="A159" t="s" s="3">
-        <v>318</v>
-      </c>
-      <c r="B159" t="s" s="3">
-        <v>319</v>
-      </c>
-      <c r="C159" t="s" s="3">
-        <v>60</v>
-      </c>
-      <c r="D159" s="4">
-        <v>0.758064516129032</v>
-      </c>
-      <c r="E159" s="4">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="160" ht="13.55" customHeight="1">
+      <c r="F159" s="4">
+        <v>0.692307692307692</v>
+      </c>
+    </row>
+    <row r="160" ht="17.9" customHeight="1">
       <c r="A160" t="s" s="3">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B160" t="s" s="3">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C160" t="s" s="3">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D160" s="4">
         <v>0.758064516129032</v>
       </c>
       <c r="E160" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="F160" s="4">
+        <v>0.784615384615385</v>
+      </c>
+    </row>
+    <row r="161" ht="17.9" customHeight="1">
+      <c r="A161" t="s" s="3">
+        <v>323</v>
+      </c>
+      <c r="B161" t="s" s="3">
+        <v>324</v>
+      </c>
+      <c r="C161" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D161" s="4">
+        <v>0.758064516129032</v>
+      </c>
+      <c r="E161" s="4">
         <v>0.68</v>
       </c>
-    </row>
-    <row r="161" ht="13.55" customHeight="1">
-      <c r="A161" t="s" s="3">
-        <v>322</v>
-      </c>
-      <c r="B161" t="s" s="3">
-        <v>323</v>
-      </c>
-      <c r="C161" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="D161" s="4">
+      <c r="F161" s="4">
+        <v>0.7538461538461541</v>
+      </c>
+    </row>
+    <row r="162" ht="17.9" customHeight="1">
+      <c r="A162" t="s" s="3">
+        <v>325</v>
+      </c>
+      <c r="B162" t="s" s="3">
+        <v>326</v>
+      </c>
+      <c r="C162" t="s" s="3">
+        <v>15</v>
+      </c>
+      <c r="D162" s="4">
         <v>0.419354838709677</v>
       </c>
-      <c r="E161" s="4">
+      <c r="E162" s="4">
         <v>0.78</v>
+      </c>
+      <c r="F162" s="4">
+        <v>0.646153846153846</v>
       </c>
     </row>
   </sheetData>
